--- a/NP-frames-up-ethos.xlsx
+++ b/NP-frames-up-ethos.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5820" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5821" uniqueCount="788">
   <si>
     <t>discussion</t>
   </si>
@@ -2486,6 +2486,15 @@
   </si>
   <si>
     <t>🙄😳 🤬</t>
+  </si>
+  <si>
+    <t>https://t.co/SlPaGt6wWN
+  ⚡️NO
+  ⚡️FAULT
+  ⚡️OF
+  ⚡️OUR
+  ⚡️OWN
+  as human beings.</t>
   </si>
   <si>
     <t>AnimeGyaan</t>
@@ -2585,7 +2594,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2639,6 +2648,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19547,7 +19559,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
@@ -40287,7 +40302,9 @@
       <c r="E239" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F239" s="14"/>
+      <c r="F239" s="18" t="s">
+        <v>784</v>
+      </c>
       <c r="G239" s="14" t="s">
         <v>178</v>
       </c>
@@ -40572,7 +40589,7 @@
         <v>0.353</v>
       </c>
       <c r="AH242" s="16" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AI242" s="14"/>
       <c r="AJ242" s="14"/>
@@ -40644,7 +40661,7 @@
         <v>0.936</v>
       </c>
       <c r="AH243" s="16" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AI243" s="14"/>
       <c r="AJ243" s="14"/>
@@ -40716,7 +40733,7 @@
         <v>0.893</v>
       </c>
       <c r="AH244" s="16" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AI244" s="14"/>
       <c r="AJ244" s="14"/>
